--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3578093.567856641</v>
+        <v>3576205.986340241</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>138.3038958997686</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>295.9408816142896</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,10 +713,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -744,10 +744,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554011</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933841</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>139.8939792152982</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>42.98425264020213</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>44.08435412546804</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>319.4121462068567</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8100533453329</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>161.1486436253825</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.983388191319379</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,7 +1148,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>316.5747219976522</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>234.4970761400735</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>78.49471243660167</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>169.7572882889412</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1658,7 +1658,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151914</v>
+        <v>283.3580910135617</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>97.12772045570719</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>224.1935651837711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>101.4950386131008</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>207.695187002995</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>217.6716772903232</v>
       </c>
       <c r="V25" t="n">
-        <v>95.02525064967691</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505273897</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>101.289814786354</v>
       </c>
       <c r="F28" t="n">
-        <v>92.28572294032182</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>25.34051740972696</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>25.34051740972856</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>90.2177913943741</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523577</v>
+        <v>54.76109577523566</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898712</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373688</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2247.308246834949</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
         <v>1363.553390680693</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834949</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834949</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834949</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834949</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>2247.308246834949</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4392,7 +4392,7 @@
         <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961344</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.9284171545819</v>
+        <v>195.2500315327869</v>
       </c>
       <c r="C4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036446</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>484.423641878219</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>484.423641878219</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>195.2500315327869</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>195.2500315327869</v>
       </c>
       <c r="W4" t="n">
-        <v>684.7105471961293</v>
+        <v>195.2500315327869</v>
       </c>
       <c r="X4" t="n">
-        <v>456.720996298112</v>
+        <v>195.2500315327869</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.9284171545819</v>
+        <v>195.2500315327869</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>983.0286321745434</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2652.619440386437</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2433.984773358499</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2433.984773358499</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2102.921886014929</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>1750.153230744814</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X5" t="n">
-        <v>1750.153230744814</v>
+        <v>1373.167964150355</v>
       </c>
       <c r="Y5" t="n">
-        <v>1750.153230744814</v>
+        <v>983.0286321745434</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507.3364050629043</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629043</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340174</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936057</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="D8" t="n">
-        <v>80.85571308685519</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,7 +4802,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>1904.980192166102</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1552.211536895988</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1178.745778634908</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>788.606446659096</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4896,28 +4896,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>452.0983189327497</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>698.8634468392138</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1006.183580119176</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>528.105874218302</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1308.553578799928</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771461</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617344999</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X13" t="n">
-        <v>748.898453361832</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y13" t="n">
-        <v>528.105874218302</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="14">
@@ -5267,16 +5267,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514079</v>
@@ -5297,13 +5297,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5312,7 +5312,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5352,7 +5352,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
@@ -5361,22 +5361,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5455,31 +5455,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>1212.69597660481</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>958.0114883989231</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5498,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5595,25 +5595,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>245.130185042679</v>
+        <v>195.3259000014042</v>
       </c>
       <c r="C19" t="n">
-        <v>245.130185042679</v>
+        <v>195.3259000014042</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>195.3259000014042</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>195.3259000014042</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5677,7 +5677,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5692,31 +5692,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>898.7925182488385</v>
       </c>
       <c r="V19" t="n">
-        <v>983.329485121187</v>
+        <v>644.1080300429517</v>
       </c>
       <c r="W19" t="n">
-        <v>693.9123150842264</v>
+        <v>644.1080300429517</v>
       </c>
       <c r="X19" t="n">
-        <v>465.9227641862091</v>
+        <v>416.1184791449343</v>
       </c>
       <c r="Y19" t="n">
-        <v>245.130185042679</v>
+        <v>195.3259000014042</v>
       </c>
     </row>
     <row r="20">
@@ -5732,34 +5732,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977054</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1999.905696641086</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>199.7373324836201</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>199.7373324836201</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>199.73733248362</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>199.73733248362</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>199.73733248362</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471189</v>
@@ -5923,7 +5923,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5938,22 +5938,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>754.3426236399425</v>
+        <v>898.7925182488378</v>
       </c>
       <c r="V22" t="n">
-        <v>499.6581354340557</v>
+        <v>898.7925182488378</v>
       </c>
       <c r="W22" t="n">
-        <v>499.6581354340557</v>
+        <v>609.3753482118772</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>381.3857973138598</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>381.3857973138598</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,19 +6069,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>711.072954880832</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C25" t="n">
-        <v>542.1367719529251</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6148,49 +6148,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557903</v>
+        <v>944.1853708078968</v>
       </c>
       <c r="V25" t="n">
-        <v>1402.931168891562</v>
+        <v>944.1853708078968</v>
       </c>
       <c r="W25" t="n">
-        <v>1113.513998854602</v>
+        <v>654.7682007709361</v>
       </c>
       <c r="X25" t="n">
-        <v>1113.513998854602</v>
+        <v>426.7786498729187</v>
       </c>
       <c r="Y25" t="n">
-        <v>892.7214197110717</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805453</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822445</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6239,13 +6239,13 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014291</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1894.594339433114</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>807.0580565471719</v>
+        <v>199.5300356889263</v>
       </c>
       <c r="C28" t="n">
-        <v>807.0580565471719</v>
+        <v>199.5300356889263</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9414171348361</v>
+        <v>199.5300356889263</v>
       </c>
       <c r="E28" t="n">
-        <v>509.028323552443</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383432</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324563</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.499100520942</v>
+        <v>420.3226148324563</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.499100520942</v>
+        <v>420.3226148324563</v>
       </c>
       <c r="Y28" t="n">
-        <v>988.7065213774116</v>
+        <v>199.5300356889263</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,10 +6458,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514082</v>
@@ -6479,31 +6479,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542177</v>
+        <v>439.5324299542191</v>
       </c>
       <c r="C31" t="n">
-        <v>326.3571123076816</v>
+        <v>326.357112307683</v>
       </c>
       <c r="D31" t="n">
-        <v>300.7606300756341</v>
+        <v>326.357112307683</v>
       </c>
       <c r="E31" t="n">
-        <v>300.7606300756341</v>
+        <v>300.7606300756339</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590946</v>
+        <v>209.6315478590944</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028586</v>
@@ -6619,52 +6619,52 @@
         <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962049</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818926</v>
+        <v>902.6804289818944</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652461</v>
+        <v>730.4517433652479</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030867</v>
+        <v>565.4200295030879</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,7 +6853,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6938,22 +6938,22 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207831</v>
@@ -7017,25 +7017,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,19 +7160,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7190,13 +7190,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
         <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010311</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>550.2226492899338</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7783,25 +7783,25 @@
         <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7810,31 +7810,31 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025262</v>
@@ -7846,7 +7846,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010312</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>165.9802687929762</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,25 +9009,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>189.0022427662467</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>381.3739760657747</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9483,25 +9483,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>213.2603911806632</v>
       </c>
       <c r="O21" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,28 +9717,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>87.16935584025441</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>158.8724419039333</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>9.900512684485989</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>223.6742649934482</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>223.6742649934481</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>297.3877236703352</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>62.91120742583809</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>15.83804904622872</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23416,10 +23416,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,10 +23431,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>143.0528486217876</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.95236710009593</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23701,13 +23701,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338592</v>
+        <v>2.879261385015642</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,10 +23896,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>48.29332756722405</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>27.94407814005689</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>64.9985298502768</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24178,22 +24178,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>78.54216539558233</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>68.56567510825425</v>
       </c>
       <c r="V25" t="n">
-        <v>157.1123926741511</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>45.14414786021521</v>
       </c>
       <c r="F28" t="n">
-        <v>53.13532508260943</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.07169897992836</v>
+        <v>93.41221638965521</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>65.89018860828347</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>93.71057173897898</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571496</v>
+        <v>55.21598883571485</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>691429.7925064224</v>
+        <v>691429.7925064223</v>
       </c>
     </row>
     <row r="7">
@@ -26314,46 +26314,46 @@
         <v>718411.5486312477</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.85454099</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="F2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="G2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="H2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="I2" t="n">
         <v>684300.8545409902</v>
       </c>
-      <c r="G2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>684300.8545409905</v>
       </c>
-      <c r="I2" t="n">
-        <v>684300.8545409899</v>
-      </c>
-      <c r="J2" t="n">
-        <v>684300.8545409901</v>
-      </c>
       <c r="K2" t="n">
-        <v>711938.7403542225</v>
+        <v>711938.7403542228</v>
       </c>
       <c r="L2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="M2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="N2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="O2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312486</v>
       </c>
       <c r="P2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312485</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284563</v>
+        <v>44162.60530284574</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086691</v>
+        <v>10342.90680086681</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284577</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007436</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007496</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="H4" t="n">
+        <v>7916.731656007498</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="I4" t="n">
-        <v>7916.731656007483</v>
-      </c>
       <c r="J4" t="n">
-        <v>7916.731656007566</v>
+        <v>7916.731656007535</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020402</v>
+        <v>26081.3541702041</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732801</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="N4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26485,31 +26485,31 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
-      </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26522,43 +26522,43 @@
         <v>-102332.4573626271</v>
       </c>
       <c r="C6" t="n">
-        <v>487635.4218519174</v>
+        <v>487635.4218519175</v>
       </c>
       <c r="D6" t="n">
-        <v>487635.4218519178</v>
+        <v>487635.4218519176</v>
       </c>
       <c r="E6" t="n">
-        <v>59236.7604593696</v>
+        <v>59139.30133339787</v>
       </c>
       <c r="F6" t="n">
-        <v>584396.7969362661</v>
+        <v>584299.3378102941</v>
       </c>
       <c r="G6" t="n">
-        <v>584396.7969362664</v>
+        <v>584299.3378102941</v>
       </c>
       <c r="H6" t="n">
-        <v>584396.7969362665</v>
+        <v>584299.3378102939</v>
       </c>
       <c r="I6" t="n">
-        <v>584396.7969362658</v>
+        <v>584299.337810294</v>
       </c>
       <c r="J6" t="n">
-        <v>407973.5777436731</v>
+        <v>407876.1186177013</v>
       </c>
       <c r="K6" t="n">
-        <v>545066.5723509501</v>
+        <v>545048.0786130158</v>
       </c>
       <c r="L6" t="n">
-        <v>580018.017113028</v>
+        <v>580018.0171130279</v>
       </c>
       <c r="M6" t="n">
-        <v>455559.9086800576</v>
+        <v>455559.9086800575</v>
       </c>
       <c r="N6" t="n">
-        <v>590360.9239138949</v>
+        <v>590360.9239138948</v>
       </c>
       <c r="O6" t="n">
-        <v>590360.9239138947</v>
+        <v>590360.9239138953</v>
       </c>
       <c r="P6" t="n">
         <v>546198.3186110493</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="N2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964071</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26753,10 +26753,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108363</v>
+        <v>12.92863350108351</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855721</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855717</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>226.9689958712389</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>58.74216000639336</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>27.3528418833296</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>243.5387456963889</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>130.3313586835035</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>50.3189544716123</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>13.43676775329496</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>125.1332306165952</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>375.9469818809424</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>11.1775364724827</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>17.64056718375451</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>123.9289676594881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-7.200212213340078e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>316.5557073809155</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>499.426619816713</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -35975,16 +35975,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>663.7376783068829</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>546.454964578676</v>
       </c>
       <c r="O21" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>369.5330580813625</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36680,7 +36680,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
@@ -36689,10 +36689,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>365.9658568354579</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36920,19 +36920,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>343.0950860824988</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.71102679412266</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.42895660043189</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>472.9319699494725</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37306,7 +37306,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37324,7 +37324,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
         <v>59.82538970349808</v>
@@ -37385,7 +37385,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>374.2497035813873</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>630.582297068348</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37789,7 +37789,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37859,13 +37859,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>373.3355844763043</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>265.095754002253</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
